--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/114_ExcelToGenericTableWithHeaders.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/114_ExcelToGenericTableWithHeaders.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportedData" sheetId="1" r:id="R83e2f2f8c9c64d53"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportedData" sheetId="1" r:id="R2d9a22f2862a4017"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/114_ExcelToGenericTableWithHeaders.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/114_ExcelToGenericTableWithHeaders.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportedData" sheetId="1" r:id="R2d9a22f2862a4017"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportedData" sheetId="1" r:id="R557c929452f54e08"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/114_ExcelToGenericTableWithHeaders.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/114_ExcelToGenericTableWithHeaders.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportedData" sheetId="1" r:id="R557c929452f54e08"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportedData" sheetId="1" r:id="Rc6ae654d467048c1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
